--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H2">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J2">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>7.542313738594332</v>
+        <v>1.068342770257889</v>
       </c>
       <c r="R2">
-        <v>67.88082364734899</v>
+        <v>9.615084932321</v>
       </c>
       <c r="S2">
-        <v>0.001132560817482294</v>
+        <v>0.0001238821484994507</v>
       </c>
       <c r="T2">
-        <v>0.001132560817482294</v>
+        <v>0.0001238821484994506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H3">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J3">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>27.77641411800167</v>
+        <v>21.97673365493722</v>
       </c>
       <c r="R3">
-        <v>249.987727062015</v>
+        <v>197.790602894435</v>
       </c>
       <c r="S3">
-        <v>0.004170932073434755</v>
+        <v>0.002548362808236736</v>
       </c>
       <c r="T3">
-        <v>0.004170932073434756</v>
+        <v>0.002548362808236735</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H4">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J4">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>69.12807531684233</v>
+        <v>60.757933339718</v>
       </c>
       <c r="R4">
-        <v>622.152677851581</v>
+        <v>546.8214000574619</v>
       </c>
       <c r="S4">
-        <v>0.01038033582336921</v>
+        <v>0.007045326209952033</v>
       </c>
       <c r="T4">
-        <v>0.01038033582336922</v>
+        <v>0.007045326209952031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.512729</v>
+        <v>1.988074333333333</v>
       </c>
       <c r="H5">
-        <v>7.538187</v>
+        <v>5.964223</v>
       </c>
       <c r="I5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907969</v>
       </c>
       <c r="J5">
-        <v>0.02190726325199687</v>
+        <v>0.01657769708907968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>41.44509953943466</v>
+        <v>59.16079129252555</v>
       </c>
       <c r="R5">
-        <v>373.005895854912</v>
+        <v>532.4471216327299</v>
       </c>
       <c r="S5">
-        <v>0.006223434537710604</v>
+        <v>0.006860125922391468</v>
       </c>
       <c r="T5">
-        <v>0.006223434537710607</v>
+        <v>0.006860125922391467</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J6">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>278.8345469039076</v>
+        <v>49.91897231332978</v>
       </c>
       <c r="R6">
-        <v>2509.510922135168</v>
+        <v>449.270750819968</v>
       </c>
       <c r="S6">
-        <v>0.04187005384937088</v>
+        <v>0.005788469499884484</v>
       </c>
       <c r="T6">
-        <v>0.0418700538493709</v>
+        <v>0.005788469499884482</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J7">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>1026.876382187165</v>
@@ -883,10 +883,10 @@
         <v>9241.88743968448</v>
       </c>
       <c r="S7">
-        <v>0.1541967087515912</v>
+        <v>0.1190738178889732</v>
       </c>
       <c r="T7">
-        <v>0.1541967087515913</v>
+        <v>0.1190738178889731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J8">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>2555.62102391451</v>
+        <v>2838.951764018944</v>
       </c>
       <c r="R8">
-        <v>23000.58921523059</v>
+        <v>25550.56587617049</v>
       </c>
       <c r="S8">
-        <v>0.3837544202396155</v>
+        <v>0.3291971956978526</v>
       </c>
       <c r="T8">
-        <v>0.3837544202396156</v>
+        <v>0.3291971956978525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8098976036382196</v>
+        <v>0.7746030815641455</v>
       </c>
       <c r="J9">
-        <v>0.8098976036382197</v>
+        <v>0.7746030815641454</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>1532.19899781302</v>
+        <v>2764.324320604871</v>
       </c>
       <c r="R9">
-        <v>13789.79098031718</v>
+        <v>24878.91888544384</v>
       </c>
       <c r="S9">
-        <v>0.230076420797642</v>
+        <v>0.3205435984774353</v>
       </c>
       <c r="T9">
-        <v>0.230076420797642</v>
+        <v>0.3205435984774352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H10">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J10">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>53.07228022814822</v>
+        <v>12.75803184445167</v>
       </c>
       <c r="R10">
-        <v>477.650522053334</v>
+        <v>114.822286600065</v>
       </c>
       <c r="S10">
-        <v>0.007969382760262005</v>
+        <v>0.001479386990313571</v>
       </c>
       <c r="T10">
-        <v>0.007969382760262007</v>
+        <v>0.001479386990313571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H11">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J11">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>195.4516458603878</v>
+        <v>262.4437358611417</v>
       </c>
       <c r="R11">
-        <v>1759.06481274349</v>
+        <v>2361.993622750275</v>
       </c>
       <c r="S11">
-        <v>0.0293492001905447</v>
+        <v>0.0304322683354261</v>
       </c>
       <c r="T11">
-        <v>0.0293492001905447</v>
+        <v>0.0304322683354261</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H12">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J12">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>486.426939000783</v>
+        <v>725.5645565552701</v>
       </c>
       <c r="R12">
-        <v>4377.842451007046</v>
+        <v>6530.08100899743</v>
       </c>
       <c r="S12">
-        <v>0.0730423197408399</v>
+        <v>0.08413451061162763</v>
       </c>
       <c r="T12">
-        <v>0.0730423197408399</v>
+        <v>0.08413451061162762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.68108066666667</v>
+        <v>23.741365</v>
       </c>
       <c r="H13">
-        <v>53.04324200000001</v>
+        <v>71.22409500000001</v>
       </c>
       <c r="I13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="J13">
-        <v>0.154152751349015</v>
+        <v>0.1979690350870239</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>291.6327818060658</v>
+        <v>706.4916619137167</v>
       </c>
       <c r="R13">
-        <v>2624.695036254592</v>
+        <v>6358.42495722345</v>
       </c>
       <c r="S13">
-        <v>0.04379184865736839</v>
+        <v>0.08192286914965664</v>
       </c>
       <c r="T13">
-        <v>0.0437918486573684</v>
+        <v>0.08192286914965664</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H14">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J14">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>4.834563206665109</v>
+        <v>0.6992357252197778</v>
       </c>
       <c r="R14">
-        <v>43.51106885998598</v>
+        <v>6.293121526978001</v>
       </c>
       <c r="S14">
-        <v>0.0007259624894006224</v>
+        <v>8.10814902850773E-05</v>
       </c>
       <c r="T14">
-        <v>0.0007259624894006226</v>
+        <v>8.108149028507727E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H15">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J15">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>17.80446085407889</v>
+        <v>14.38388289131445</v>
       </c>
       <c r="R15">
-        <v>160.24014768671</v>
+        <v>129.45494602183</v>
       </c>
       <c r="S15">
-        <v>0.002673534334238022</v>
+        <v>0.001667916296106339</v>
       </c>
       <c r="T15">
-        <v>0.002673534334238023</v>
+        <v>0.001667916296106339</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H16">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J16">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>44.31054727467044</v>
+        <v>39.76637345652401</v>
       </c>
       <c r="R16">
-        <v>398.7949254720339</v>
+        <v>357.897361108716</v>
       </c>
       <c r="S16">
-        <v>0.006653712823916748</v>
+        <v>0.004611201497284004</v>
       </c>
       <c r="T16">
-        <v>0.00665371282391675</v>
+        <v>0.004611201497284004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.610639333333333</v>
+        <v>1.301204666666667</v>
       </c>
       <c r="H17">
-        <v>4.831917999999999</v>
+        <v>3.903614</v>
       </c>
       <c r="I17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="J17">
-        <v>0.0140423817607685</v>
+        <v>0.01085018625975097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>26.56597965484088</v>
+        <v>38.72103594057111</v>
       </c>
       <c r="R17">
-        <v>239.0938168935679</v>
+        <v>348.48932346514</v>
       </c>
       <c r="S17">
-        <v>0.003989172113213104</v>
+        <v>0.004489986976075551</v>
       </c>
       <c r="T17">
-        <v>0.003989172113213105</v>
+        <v>0.004489986976075551</v>
       </c>
     </row>
   </sheetData>
